--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="743">
   <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">WBS L2</t>
@@ -3169,10 +3169,10 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="41.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.5"/>
